--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,24 +14,1053 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
+  <si>
+    <t>MessageCode</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>INPUT_PRODUCT_STRING_ERROR</t>
+  </si>
+  <si>
+    <t>Chuỗi sản phẩm không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Product string cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_ADDRESS_ERROR</t>
+  </si>
+  <si>
+    <t>Địa chỉ không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Address not be vacant</t>
+  </si>
+  <si>
+    <t>INPUT_COSTPERKM_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn giá / 1km không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Unit price / 1km cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_COSTPERKM_ERROR1</t>
+  </si>
+  <si>
+    <t>Đơn giá / 1km không hợp lệ</t>
+  </si>
+  <si>
+    <t>Unit price/1km is not valid</t>
+  </si>
+  <si>
+    <t>INPUT_COSTPERKM_ERROR2</t>
+  </si>
+  <si>
+    <t>Đơn giá / 1km phải là số dương</t>
+  </si>
+  <si>
+    <t>Unit price / 1km must be a positive number</t>
+  </si>
+  <si>
+    <t>INPUT_UPSIZE_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn giá upsize không hợp lệ</t>
+  </si>
+  <si>
+    <t>Upsize unit price is invalid</t>
+  </si>
+  <si>
+    <t>INPUT_UPSIZE_ERROR1</t>
+  </si>
+  <si>
+    <t>Đơn giá upsize phải là số dương</t>
+  </si>
+  <si>
+    <t>The upsize unit price must be a positive number</t>
+  </si>
+  <si>
+    <t>INPUT_UNITNAME_INGREDIENT_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn vị không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Unit cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_PRICE_ERROR</t>
+  </si>
+  <si>
+    <t>Giá không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Price cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_PRICE_ERROR1</t>
+  </si>
+  <si>
+    <t>Giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Price is not valid</t>
+  </si>
+  <si>
+    <t>INPUT_PRICE_ERROR2</t>
+  </si>
+  <si>
+    <t>Giá phải là số dương</t>
+  </si>
+  <si>
+    <t>Price must be a positive number</t>
+  </si>
+  <si>
+    <t>INPUT_SIZE_ERROR</t>
+  </si>
+  <si>
+    <t>Giá upsize không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Upsize price cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_SIZE_ERROR1</t>
+  </si>
+  <si>
+    <t>Giá upsize không hợp lệ</t>
+  </si>
+  <si>
+    <t>Upsize price is not valid</t>
+  </si>
+  <si>
+    <t>INPUT_SIZE_ERROR2</t>
+  </si>
+  <si>
+    <t>Giá upsize phải lớn hơn hoặc bằng không</t>
+  </si>
+  <si>
+    <t>Upsize price must be greater than or equal to zero</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_GENDER_ERROR</t>
+  </si>
+  <si>
+    <t>Giới tính không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Gender cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_GENDER_ERROR1</t>
+  </si>
+  <si>
+    <t>Giới tính phải là Nam hoặc Nữ</t>
+  </si>
+  <si>
+    <t>Gender must be Male or Female</t>
+  </si>
+  <si>
+    <t>INPUT_IMAGE_ERROR</t>
+  </si>
+  <si>
+    <t>Hình ảnh không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Image cannot be left blank</t>
+  </si>
   <si>
     <t>GET_FEESHIP_ERROR</t>
   </si>
   <si>
-    <t>Trường hợp khoảng cách tính được &gt; 20(km)</t>
+    <t>Cửa hàng không hỗ trợ giao trên 20km, không thể đặt hàng</t>
+  </si>
+  <si>
+    <t>The store does not support delivery over 20km, cannot place an order</t>
+  </si>
+  <si>
+    <t>INPUT_DISCOUNT_ERROR</t>
+  </si>
+  <si>
+    <t>Giá trị khuyến mãi không hợp lệ</t>
+  </si>
+  <si>
+    <t>INPUT_DISCOUNT_ERROR1</t>
+  </si>
+  <si>
+    <t>Giá trị khuyến mãi chỉ chấp nhận từ 0 tới 100</t>
+  </si>
+  <si>
+    <t>Promotion values are only accepted from 0 to 100</t>
+  </si>
+  <si>
+    <t>INPUT_LATITUDE_ERROR</t>
+  </si>
+  <si>
+    <t>Kinh độ chỉ chấp nhận từ 0 tới 90</t>
+  </si>
+  <si>
+    <t>Longitude is only accepted from 0 to 90</t>
+  </si>
+  <si>
+    <t>RECIPE_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Công thức không tồn tại</t>
+  </si>
+  <si>
+    <t>Recipe does not exist</t>
+  </si>
+  <si>
+    <t>INPUT_SHIPPING_COMPANYID_ERROR</t>
+  </si>
+  <si>
+    <t>Mã đơn vị vận chuyển không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Shipping unit code cannot be left blank</t>
+  </si>
+  <si>
+    <t>SHIPPING_COMPANY_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Đơn vị vận chuyển không tồn tại</t>
+  </si>
+  <si>
+    <t>The shipping unit does not exist</t>
+  </si>
+  <si>
+    <t>PAYMENT_ERROR</t>
+  </si>
+  <si>
+    <t>Hoá đơn đã được thanh toán, không thể thanh toán`</t>
+  </si>
+  <si>
+    <t>Invoice has been paid, cannot be paid</t>
+  </si>
+  <si>
+    <t>PAYMENT_ERROR1</t>
+  </si>
+  <si>
+    <t>Hoá đơn đã được huỷ, không thể thanh toán</t>
+  </si>
+  <si>
+    <t>Invoice has been canceled and cannot be paid</t>
+  </si>
+  <si>
+    <t>PAYMENT_ERROR2</t>
+  </si>
+  <si>
+    <t>Không tìm thấy mã hoá đơn cần thanh toán</t>
+  </si>
+  <si>
+    <t>No invoice code found for payment</t>
+  </si>
+  <si>
+    <t>CANCEL_INVOICE_ERROR</t>
+  </si>
+  <si>
+    <t>Không thể huỷ hoá đơn này</t>
+  </si>
+  <si>
+    <t>This invoice cannot be canceled</t>
+  </si>
+  <si>
+    <t>RECEIVE_INVOICE_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn hàng chưa sẵn sàng để mang đi giao</t>
+  </si>
+  <si>
+    <t>The order is not ready for delivery</t>
+  </si>
+  <si>
+    <t>COMPLETE_INVOICE_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn hàng chưa sẵn sàng để hoàn thành</t>
+  </si>
+  <si>
+    <t>The order is not ready to be fulfilled</t>
+  </si>
+  <si>
+    <t>INPUT_INVOICE_ERROR</t>
+  </si>
+  <si>
+    <t>Mã hoá đơn không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Invoice code cannot be left blank</t>
+  </si>
+  <si>
+    <t>INVOICE_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Hoá đơn không tồn tại</t>
+  </si>
+  <si>
+    <t>Invoice does not exist</t>
+  </si>
+  <si>
+    <t>INPUT_IMPORT_ERROR</t>
+  </si>
+  <si>
+    <t>Mã hoá đơn nhập không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Invoice code entered cannot be left blank</t>
+  </si>
+  <si>
+    <t>IMPORT_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Hoá đơn nhập không tồn tại</t>
+  </si>
+  <si>
+    <t>The imported invoice does not exist</t>
+  </si>
+  <si>
+    <t>STATUS_IMPORT_EXPORT_ERROR</t>
+  </si>
+  <si>
+    <t>Hoá đơn đã huỷ hoặc đã hoàn thành không thể cập nhật</t>
+  </si>
+  <si>
+    <t>Canceled or completed invoices cannot be updated</t>
+  </si>
+  <si>
+    <t>INPUT_EXPORT_ERROR</t>
+  </si>
+  <si>
+    <t>Mã hoá đơn xuất không được bỏ trống</t>
+  </si>
+  <si>
+    <t>The export invoice code cannot be left blank</t>
+  </si>
+  <si>
+    <t>EXPORT_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Nguyên liệu không tồn tại</t>
+  </si>
+  <si>
+    <t>Ingredients do not exist</t>
   </si>
   <si>
     <t>CREATE_REVIEW_ERROR</t>
   </si>
   <si>
-    <t>Trường hợp mã hoá đơn hoặc mã sản phẩm không đúng</t>
+    <t>Không tìm thấy hoá đơn hoặc sản phẩm, không thể đánh giá</t>
+  </si>
+  <si>
+    <t>No invoice or product found, cannot rate</t>
+  </si>
+  <si>
+    <t>INPUT_TYPEID_ERROR</t>
+  </si>
+  <si>
+    <t>Mã loại hàng không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Product type code cannot be left blank</t>
+  </si>
+  <si>
+    <t>TYPE_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Loại hàng không tồn tại</t>
+  </si>
+  <si>
+    <t>The item type does not exist</t>
+  </si>
+  <si>
+    <t>INPUT_INGREDIENT_ERROR</t>
+  </si>
+  <si>
+    <t>Mã nguyên liệu không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Material code cannot be left blank</t>
+  </si>
+  <si>
+    <t>INGREDIENT_NOTFOUND</t>
+  </si>
+  <si>
+    <t>STAFF_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Nhân viên không tồn tại</t>
+  </si>
+  <si>
+    <t>Staff does not exist</t>
+  </si>
+  <si>
+    <t>IMPORT_ISEXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Đang có hoá đơn nhập chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>There are unfinished import invoices</t>
+  </si>
+  <si>
+    <t>EXPORT_ISEXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Đang có hoá đơn xuất chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>There are unfinished invoices</t>
+  </si>
+  <si>
+    <t>INPUT_PRODUCT_ERROR</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Product code cannot be left blank</t>
+  </si>
+  <si>
+    <t>PRODUCT_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Sản phẩm không tồn tại</t>
+  </si>
+  <si>
+    <t>Product does not exist</t>
+  </si>
+  <si>
+    <t>INPUT_ROLE_ERROR</t>
+  </si>
+  <si>
+    <t>Vai trò không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Role cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_ROLE_ERROR1</t>
+  </si>
+  <si>
+    <t>Vai trò không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid role</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR</t>
+  </si>
+  <si>
+    <t>Mật khẩu không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Password cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR1</t>
+  </si>
+  <si>
+    <t>Mật khẩu phải nhập ít nhất 6 ký tự</t>
+  </si>
+  <si>
+    <t>Password must be at least 6 characters long</t>
+  </si>
+  <si>
+    <t>INPUT_REPEAT_PASSWORD_ERROR</t>
+  </si>
+  <si>
+    <t>Mật khẩu lặp lại không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Repeated passwords cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR2</t>
+  </si>
+  <si>
+    <t>Mật khẩu hoặc mật khẩu lặp lại phải có ít nhất 6 ký tự</t>
+  </si>
+  <si>
+    <t>Password or repeating password must be at least 6 characters</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR3</t>
+  </si>
+  <si>
+    <t>Mật khẩu lặp lại không khớp</t>
+  </si>
+  <si>
+    <t>Repeated passwords do not match</t>
+  </si>
+  <si>
+    <t>INPUT_FROMDATE_ERROR</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Start date cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_FROMDATE_ERROR1</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid start date</t>
+  </si>
+  <si>
+    <t>INPUT_FROMDATE_ERROR2</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu không được lớn hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>The start date cannot be greater than the current date</t>
+  </si>
+  <si>
+    <t>INPUT_TODATE_ERROR</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc không được bỏ trống</t>
+  </si>
+  <si>
+    <t>The end date cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_TODATE_ERROR1</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid end date</t>
+  </si>
+  <si>
+    <t>INPUT_TODATE_ERROR2</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc không được lớn hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>The end date cannot be greater than the current date</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_BIRTHDAY_ERROR</t>
+  </si>
+  <si>
+    <t>Ngày sinh không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Date of birth cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_BIRTHDAY_ERROR1</t>
+  </si>
+  <si>
+    <t>Ngày sinh không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid date of birth</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_BIRTHDAY_ERROR2</t>
+  </si>
+  <si>
+    <t>Ngày sinh không được lớn hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Date of birth cannot be greater than current date</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_HIREDATE_ERROR3</t>
+  </si>
+  <si>
+    <t>Nhân viên không đủ 15 tuổi, vui lòng chỉnh sửa ngày sinh hoặc ngày vào làm</t>
+  </si>
+  <si>
+    <t>Employees under 15 years old, please edit date of birth or date of employment</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_HIREDATE_ERROR</t>
+  </si>
+  <si>
+    <t>Ngày vào làm không được bỏ trống</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_HIREDATE_ERROR1</t>
+  </si>
+  <si>
+    <t>Ngày vào làm không hợp lệ</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_HIREDATE_ERROR2</t>
+  </si>
+  <si>
+    <t>Ngày vào làm không được lớn hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>INPUT_SHIPPINGFEE_ERROR</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển không được để trống</t>
+  </si>
+  <si>
+    <t>Shipping fee cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_SHIPPINGFEE_ERROR1</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid shipping fee</t>
+  </si>
+  <si>
+    <t>INPUT_SHIPPINGFEE_ERROR2</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển phải lớn hơn hoặc bằng 0</t>
+  </si>
+  <si>
+    <t>Shipping fee must be greater than or equal to 0</t>
+  </si>
+  <si>
+    <t>INPUT_PHONE_ERROR</t>
+  </si>
+  <si>
+    <t>Số điện thoại không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Phone number cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_PHONE_ERROR1</t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid phone number</t>
+  </si>
+  <si>
+    <t>INPUT_PHONE_ERROR2</t>
+  </si>
+  <si>
+    <t>Số điện thoại phải có 10 ký tự số</t>
+  </si>
+  <si>
+    <t>Phone number must have 10 numeric characters</t>
+  </si>
+  <si>
+    <t>PHONE_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Số điện thoại không tồn tại</t>
+  </si>
+  <si>
+    <t>Phone number does not exist</t>
+  </si>
+  <si>
+    <t>PHONE_ISEXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Số điện thoại đã tồn tại</t>
+  </si>
+  <si>
+    <t>Phone number already exists</t>
+  </si>
+  <si>
+    <t>AUTH_ERROR</t>
+  </si>
+  <si>
+    <t>Thông tin đăng nhập không chính xác</t>
+  </si>
+  <si>
+    <t>Login information is incorrect</t>
+  </si>
+  <si>
+    <t>AUTH_ERROR1</t>
+  </si>
+  <si>
+    <t>Bạn đã nghỉ việc tại hệ thống không thể đăng nhập</t>
+  </si>
+  <si>
+    <t>You have quit your job because the system cannot log in</t>
+  </si>
+  <si>
+    <t>INPUT_QUANTITY_ERROR</t>
+  </si>
+  <si>
+    <t>Số lượng không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Quantity cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_QUANTITY_ERROR1</t>
+  </si>
+  <si>
+    <t>Số lượng không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid quantity</t>
+  </si>
+  <si>
+    <t>INPUT_QUANTITY_ERROR2</t>
+  </si>
+  <si>
+    <t>Số lượng phải là số dương</t>
+  </si>
+  <si>
+    <t>The quantity must be positive</t>
+  </si>
+  <si>
+    <t>INPUT_STAR_RATING_ERROR</t>
+  </si>
+  <si>
+    <t>Số sao đánh giá không được bỏ trống</t>
+  </si>
+  <si>
+    <t>The number of rating stars cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_STAR_RATING_ERROR1</t>
+  </si>
+  <si>
+    <t>Số sao đánh giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid rating stars</t>
+  </si>
+  <si>
+    <t>INPUT_STAR_RATING_ERROR2</t>
+  </si>
+  <si>
+    <t>Số sao đánh giá phải &gt;= 1 hoặc &lt;=5</t>
+  </si>
+  <si>
+    <t>The number of rating stars must be &gt;= 1 or &lt;=5</t>
+  </si>
+  <si>
+    <t>INPUT_NAME_RECIPE_ERROR</t>
+  </si>
+  <si>
+    <t>Tên công thức không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Formula names cannot be left blank</t>
+  </si>
+  <si>
+    <t>SHIPPING_COMPANY_ISEXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn vị vận chuyển đã tồn tại</t>
+  </si>
+  <si>
+    <t>The shipping unit already exists</t>
+  </si>
+  <si>
+    <t>INPUT_TYPE_NAME_ERROR</t>
+  </si>
+  <si>
+    <t>Tên loại hàng không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Product type name cannot be left blank</t>
+  </si>
+  <si>
+    <t>TYPE_ISEXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Loại hàng đã tồn tại</t>
+  </si>
+  <si>
+    <t>The product type already exists</t>
+  </si>
+  <si>
+    <t>INPUT_USERNAME_ERROR</t>
+  </si>
+  <si>
+    <t>Tên người dùng không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Username cannot be left blank</t>
+  </si>
+  <si>
+    <t>INPUT_NAME_INGREDIENT_ERROR</t>
+  </si>
+  <si>
+    <t>Tên nguyên liệu không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Ingredient name cannot be left blank</t>
+  </si>
+  <si>
+    <t>INGREDIENT_ISEXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Nguyên liệu đã tồn tại</t>
+  </si>
+  <si>
+    <t>The ingredient already exists</t>
+  </si>
+  <si>
+    <t>INPUT_STAFF_NAME_ERROR</t>
+  </si>
+  <si>
+    <t>Tên nhân viên không được bỏ trống</t>
+  </si>
+  <si>
+    <t>Employee name cannot be left blank</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
+    <t>Bạn chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>You are not logged in</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>Bạn không có quyền sử dụng chức năng này</t>
+  </si>
+  <si>
+    <t>You do not have permission to use this function</t>
+  </si>
+  <si>
+    <t>INPUT_STATUS_SHOP_ERROR</t>
+  </si>
+  <si>
+    <t>Trạng thái cửa hàng không hợp lệ</t>
+  </si>
+  <si>
+    <t>Invalid store status</t>
+  </si>
+  <si>
+    <t>INPUT_STATUS_SHOP_ERROR1</t>
+  </si>
+  <si>
+    <t>PAYMENT_ERROR3</t>
+  </si>
+  <si>
+    <t>Lỗi thanh toán</t>
+  </si>
+  <si>
+    <t>Payment error</t>
+  </si>
+  <si>
+    <t>INPUT_LONGITUDE_ERROR</t>
+  </si>
+  <si>
+    <t>Kinh độ phải &lt;= 180 hoặc &gt;=0</t>
+  </si>
+  <si>
+    <t>Longitude must be &lt;= 180 or &gt;=0</t>
+  </si>
+  <si>
+    <t>ADD_TO_CART_SUCCESS</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t>Added product to cart successfully</t>
+  </si>
+  <si>
+    <t>DELETE_FROM_CART_SUCCESS</t>
+  </si>
+  <si>
+    <t>Xoá sản phẩm khỏi giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t>Successfully removed product from cart</t>
+  </si>
+  <si>
+    <t>COMPLETE_EXPORT_SUCCESS</t>
+  </si>
+  <si>
+    <t>Hoàn thành hoá đơn xuất thành công</t>
+  </si>
+  <si>
+    <t>Completed export invoice successfully</t>
+  </si>
+  <si>
+    <t>COMPLETE_IMPORT_SUCCESS</t>
+  </si>
+  <si>
+    <t>Hoàn thành hoá đơn nhập thành công</t>
+  </si>
+  <si>
+    <t>Completed invoice import successfully</t>
+  </si>
+  <si>
+    <t>CREATE_SUCCESS</t>
+  </si>
+  <si>
+    <t>Thêm mới thành công</t>
+  </si>
+  <si>
+    <t>Added successfully</t>
+  </si>
+  <si>
+    <t>UPDATE_SUCCESS</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Update successful</t>
+  </si>
+  <si>
+    <t>DELETE_SUCCESS</t>
+  </si>
+  <si>
+    <t>Xoá thành công</t>
+  </si>
+  <si>
+    <t>Deleted successfully</t>
+  </si>
+  <si>
+    <t>PAYMENT_SUCCESS</t>
+  </si>
+  <si>
+    <t>Thanh toán thành công</t>
+  </si>
+  <si>
+    <t>Payment success</t>
+  </si>
+  <si>
+    <t>REFUND_SUCCESS</t>
+  </si>
+  <si>
+    <t>Hoàn tiền thành công</t>
+  </si>
+  <si>
+    <t>Refund successful</t>
+  </si>
+  <si>
+    <t>CHECKOUT_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đặt hàng thành công</t>
+  </si>
+  <si>
+    <t>Order Success</t>
+  </si>
+  <si>
+    <t>RECEIVE_SUCCESS</t>
+  </si>
+  <si>
+    <t>Nhận đơn hàng thành công</t>
+  </si>
+  <si>
+    <t>Received order successfully</t>
+  </si>
+  <si>
+    <t>COMPLETE_SUCCESS</t>
+  </si>
+  <si>
+    <t>Hoàn thành đơn hàng thành công</t>
+  </si>
+  <si>
+    <t>Completed order successfully</t>
+  </si>
+  <si>
+    <t>RATING_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đánh giá thành công</t>
+  </si>
+  <si>
+    <t>Reviews successfully</t>
+  </si>
+  <si>
+    <t>ADD_TO_WISHLIST_SUCCESS</t>
+  </si>
+  <si>
+    <t>Thêm vào danh sách yêu thích thành công</t>
+  </si>
+  <si>
+    <t>Added to favorites list successfully</t>
+  </si>
+  <si>
+    <t>DELETE_FROM_WISHLIST_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đã xoá khỏi danh sách yêu thích</t>
+  </si>
+  <si>
+    <t>Removed from favorites list</t>
+  </si>
+  <si>
+    <t>LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Logged in successfully</t>
+  </si>
+  <si>
+    <t>LOGOUT_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đăng xuất thành công</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>PREPARED_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đơn hàng đã chuẩn bị xong</t>
+  </si>
+  <si>
+    <t>The order has been prepared</t>
+  </si>
+  <si>
+    <t>PREPARED_INVOICE_ERROR</t>
+  </si>
+  <si>
+    <t>Lỗi chuẩn bị đơn hàng</t>
+  </si>
+  <si>
+    <t>Order preparation error</t>
   </si>
   <si>
     <t>MESSAGE_NOTFOUND</t>
   </si>
   <si>
-    <t>Trường hợp không tìm thấy messageCode</t>
+    <t>Không tìm thấy thông báo</t>
+  </si>
+  <si>
+    <t>Notification found</t>
+  </si>
+  <si>
+    <t>INTERNAL_SERVER_ERROR</t>
+  </si>
+  <si>
+    <t>Đã có lỗi xảy ra, vui lòng thử lại</t>
+  </si>
+  <si>
+    <t>An error occurred, please try again</t>
   </si>
 </sst>
 </file>
@@ -44,13 +1073,19 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -396,7 +1431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -411,6 +1446,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -537,147 +1585,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,41 +2270,1495 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="57.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="62.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" ht="15.75" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" ht="15.75" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" ht="15.75" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" ht="15.75" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" ht="15.75" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" ht="15.75" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" ht="15.75" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" ht="15.75" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" ht="15.75" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" ht="15.75" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" ht="15.75" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" ht="15.75" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" ht="15.75" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" ht="15.75" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" ht="15.75" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" ht="15.75" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" ht="15.75" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" ht="15.75" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" ht="31.5" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" ht="15.75" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" ht="15.75" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" ht="15.75" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" ht="15.75" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" ht="15.75" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" ht="15.75" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" ht="15.75" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" ht="15.75" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" ht="15.75" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" ht="15.75" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" ht="15.75" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" ht="15.75" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" ht="15.75" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" ht="15.75" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" ht="15.75" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" ht="15.75" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" ht="15.75" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" ht="15.75" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" ht="15.75" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" ht="15.75" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" ht="15.75" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" ht="15.75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" ht="15.75" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" ht="15.75" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" ht="15.75" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" ht="15.75" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" ht="15.75" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" ht="15.75" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" ht="15.75" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" ht="15.75" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" ht="15.75" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" ht="15.75" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" ht="15.75" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" ht="15.75" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" ht="15.75" spans="1:4">
+      <c r="A88" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" ht="15.75" spans="1:4">
+      <c r="A89" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" ht="15.75" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" ht="15.75" spans="1:4">
+      <c r="A91" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" ht="15.75" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" ht="15.75" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" ht="15.75" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" ht="15.75" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" ht="15.75" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" ht="15.75" spans="1:4">
+      <c r="A97" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" ht="15.75" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" ht="15.75" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" ht="15.75" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" ht="15.75" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" ht="15.75" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" ht="15.75" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" ht="15.75" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" ht="15.75" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" ht="15.75" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" ht="15.75" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" ht="15.75" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" ht="15.75" spans="1:4">
+      <c r="A109" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" ht="15.75" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" ht="15.75" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" ht="15.75" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" ht="15.75" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" ht="15.75" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" ht="15.75" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" ht="15.75" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" ht="15.75" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" ht="15.75" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" spans="1:2">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" ht="15.75" spans="1:2">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" ht="15.75" spans="1:2">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" ht="15.75" spans="1:2">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" ht="15.75" spans="1:2">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" ht="15.75" spans="1:2">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" ht="15.75" spans="1:2">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" ht="15.75" spans="1:2">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" ht="15.75" spans="1:2">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" ht="15.75" spans="1:2">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" ht="15.75" spans="1:2">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" ht="15.75" spans="1:2">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" ht="15.75" spans="1:2">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="359">
   <si>
     <t>MessageCode</t>
   </si>
@@ -25,6 +25,9 @@
     <t>EN</t>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
     <t>INPUT_PRODUCT_STRING_ERROR</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>Product string cannot be left blank</t>
   </si>
   <si>
+    <t>产品字符串不能留空</t>
+  </si>
+  <si>
     <t>INPUT_STAFF_ADDRESS_ERROR</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
     <t>Address not be vacant</t>
   </si>
   <si>
+    <t>地址不能空着</t>
+  </si>
+  <si>
     <t>INPUT_COSTPERKM_ERROR</t>
   </si>
   <si>
@@ -52,6 +61,9 @@
     <t>Unit price / 1km cannot be left blank</t>
   </si>
   <si>
+    <t>单价/1公里不能留空</t>
+  </si>
+  <si>
     <t>INPUT_COSTPERKM_ERROR1</t>
   </si>
   <si>
@@ -61,6 +73,9 @@
     <t>Unit price/1km is not valid</t>
   </si>
   <si>
+    <t>单价/1公里无效</t>
+  </si>
+  <si>
     <t>INPUT_COSTPERKM_ERROR2</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>Unit price / 1km must be a positive number</t>
   </si>
   <si>
+    <t>单价/1公里必须为正数</t>
+  </si>
+  <si>
     <t>INPUT_UPSIZE_ERROR</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t>Upsize unit price is invalid</t>
   </si>
   <si>
+    <t>大号单价无效</t>
+  </si>
+  <si>
     <t>INPUT_UPSIZE_ERROR1</t>
   </si>
   <si>
@@ -88,6 +109,9 @@
     <t>The upsize unit price must be a positive number</t>
   </si>
   <si>
+    <t>加码单价必须为正数</t>
+  </si>
+  <si>
     <t>INPUT_UNITNAME_INGREDIENT_ERROR</t>
   </si>
   <si>
@@ -97,6 +121,9 @@
     <t>Unit cannot be left blank</t>
   </si>
   <si>
+    <t>单位不能留空</t>
+  </si>
+  <si>
     <t>INPUT_PRICE_ERROR</t>
   </si>
   <si>
@@ -104,6 +131,9 @@
   </si>
   <si>
     <t>Price cannot be left blank</t>
+  </si>
+  <si>
+    <t>价格不能为空</t>
   </si>
   <si>
     <t>INPUT_PRICE_ERROR1</t>
@@ -2272,8 +2302,8 @@
   <sheetPr/>
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2281,9 +2311,10 @@
     <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="57.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="62.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="31.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2293,1419 +2324,1442 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" ht="15.75" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" ht="15.75" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" ht="15.75" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" ht="15.75" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" ht="15.75" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" ht="15.75" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" ht="15.75" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" ht="15.75" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" ht="15.75" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" ht="15.75" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" ht="15.75" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" ht="15.75" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" ht="15.75" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" ht="15.75" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" ht="15.75" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" ht="15.75" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" ht="15.75" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" ht="15.75" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" ht="15.75" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" ht="15.75" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" ht="15.75" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" ht="15.75" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" ht="15.75" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" ht="15.75" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" ht="15.75" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" ht="15.75" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" ht="15.75" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" ht="15.75" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" ht="15.75" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" ht="15.75" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" ht="15.75" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" ht="15.75" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" ht="15.75" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" ht="15.75" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" ht="15.75" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" ht="15.75" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" ht="15.75" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" ht="15.75" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" ht="31.5" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" ht="15.75" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" ht="15.75" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" ht="15.75" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" ht="15.75" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" ht="15.75" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" ht="15.75" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" ht="15.75" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" ht="15.75" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" ht="15.75" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" ht="15.75" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" ht="15.75" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" ht="15.75" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" ht="15.75" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" ht="15.75" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" ht="15.75" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" ht="15.75" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" ht="15.75" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" ht="15.75" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" ht="15.75" spans="1:4">
       <c r="A72" s="5" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" ht="15.75" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" ht="15.75" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" ht="15.75" spans="1:4">
       <c r="A75" s="5" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" ht="15.75" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" ht="15.75" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" ht="15.75" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" ht="15.75" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" ht="15.75" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" ht="15.75" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" ht="15.75" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" ht="15.75" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" ht="15.75" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" ht="15.75" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" ht="15.75" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" ht="15.75" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" ht="15.75" spans="1:4">
       <c r="A88" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" ht="15.75" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" ht="15.75" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" ht="15.75" spans="1:4">
       <c r="A91" s="5" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" ht="15.75" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" ht="15.75" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" ht="15.75" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" ht="15.75" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" ht="15.75" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" ht="15.75" spans="1:4">
       <c r="A97" s="5" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" ht="15.75" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" ht="15.75" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" ht="15.75" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" ht="15.75" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" ht="15.75" spans="1:4">
       <c r="A102" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" ht="15.75" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" ht="15.75" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" ht="15.75" spans="1:4">
       <c r="A105" s="2" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" ht="15.75" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" ht="15.75" spans="1:4">
       <c r="A107" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" ht="15.75" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" ht="15.75" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" ht="15.75" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" ht="15.75" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" ht="15.75" spans="1:4">
       <c r="A112" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" ht="15.75" spans="1:4">
       <c r="A113" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" ht="15.75" spans="1:4">
       <c r="A114" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" ht="15.75" spans="1:4">
       <c r="A115" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" ht="15.75" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" ht="15.75" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" ht="15.75" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" ht="15.75" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" ht="15.75" spans="1:2">

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="361">
   <si>
     <t>MessageCode</t>
   </si>
@@ -61,7 +61,27 @@
     <t>Unit price / 1km cannot be left blank</t>
   </si>
   <si>
-    <t>单价/1公里不能留空</t>
+    <r>
+      <t>单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公里不能留空</t>
+    </r>
   </si>
   <si>
     <t>INPUT_COSTPERKM_ERROR1</t>
@@ -73,7 +93,27 @@
     <t>Unit price/1km is not valid</t>
   </si>
   <si>
-    <t>单价/1公里无效</t>
+    <r>
+      <t>单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公里无效</t>
+    </r>
   </si>
   <si>
     <t>INPUT_COSTPERKM_ERROR2</t>
@@ -85,7 +125,27 @@
     <t>Unit price / 1km must be a positive number</t>
   </si>
   <si>
-    <t>单价/1公里必须为正数</t>
+    <r>
+      <t>单价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公里必须为正数</t>
+    </r>
   </si>
   <si>
     <t>INPUT_UPSIZE_ERROR</t>
@@ -1091,6 +1151,12 @@
   </si>
   <si>
     <t>An error occurred, please try again</t>
+  </si>
+  <si>
+    <t>INPUT_QUANTITY_ERROR3</t>
+  </si>
+  <si>
+    <t>Số  lượng sản phẩm không đủ</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1169,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1186,12 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1615,154 +1687,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2302,1517 +2389,1527 @@
   <sheetPr/>
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="35.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="57.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="62.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="31.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:4">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" spans="1:4">
-      <c r="A26" s="5" t="s">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" ht="15.75" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" spans="1:4">
-      <c r="A29" s="5" t="s">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" ht="15.75" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" ht="15.75" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" ht="15.75" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" ht="15.75" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" ht="15.75" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" ht="15.75" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" ht="15.75" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" spans="1:4">
-      <c r="A39" s="5" t="s">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" ht="15.75" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" ht="15.75" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" ht="15.75" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" ht="15.75" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" ht="15.75" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" ht="15.75" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" ht="15.75" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" ht="15.75" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" ht="15.75" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" ht="31.5" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" ht="15.75" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" ht="15.75" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" ht="15.75" spans="1:4">
-      <c r="A56" s="2" t="s">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" ht="15.75" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" ht="15.75" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" ht="15.75" spans="1:4">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" ht="15.75" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" ht="15.75" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" ht="15.75" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" ht="15.75" spans="1:4">
-      <c r="A63" s="2" t="s">
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" ht="15.75" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" ht="15.75" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" ht="15.75" spans="1:4">
-      <c r="A66" s="2" t="s">
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" ht="15.75" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" ht="15.75" spans="1:4">
-      <c r="A68" s="2" t="s">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" ht="15.75" spans="1:4">
-      <c r="A69" s="2" t="s">
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" ht="15.75" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" ht="15.75" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" ht="15.75" spans="1:4">
-      <c r="A72" s="5" t="s">
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" ht="15.75" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" ht="15.75" spans="1:4">
-      <c r="A74" s="5" t="s">
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" ht="15.75" spans="1:4">
-      <c r="A75" s="5" t="s">
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" ht="15.75" spans="1:4">
-      <c r="A76" s="5" t="s">
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" ht="15.75" spans="1:4">
-      <c r="A77" s="2" t="s">
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" ht="15.75" spans="1:4">
-      <c r="A78" s="2" t="s">
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" ht="15.75" spans="1:4">
-      <c r="A79" s="2" t="s">
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" ht="15.75" spans="1:4">
-      <c r="A80" s="2" t="s">
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" ht="15.75" spans="1:4">
-      <c r="A81" s="2" t="s">
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" ht="15.75" spans="1:4">
-      <c r="A82" s="2" t="s">
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" ht="15.75" spans="1:4">
-      <c r="A83" s="2" t="s">
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" ht="15.75" spans="1:4">
-      <c r="A84" s="2" t="s">
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" ht="15.75" spans="1:4">
-      <c r="A85" s="2" t="s">
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" ht="15.75" spans="1:4">
-      <c r="A86" s="2" t="s">
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" ht="15.75" spans="1:4">
-      <c r="A87" s="2" t="s">
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" ht="15.75" spans="1:4">
-      <c r="A88" s="5" t="s">
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" ht="15.75" spans="1:4">
-      <c r="A89" s="5" t="s">
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" ht="15.75" spans="1:4">
-      <c r="A90" s="2" t="s">
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" ht="15.75" spans="1:4">
-      <c r="A91" s="5" t="s">
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" ht="15.75" spans="1:4">
-      <c r="A92" s="2" t="s">
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" ht="15.75" spans="1:4">
-      <c r="A93" s="2" t="s">
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" ht="15.75" spans="1:4">
-      <c r="A94" s="2" t="s">
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" ht="15.75" spans="1:4">
-      <c r="A95" s="2" t="s">
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" ht="15.75" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" ht="15.75" spans="1:4">
-      <c r="A97" s="5" t="s">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" ht="15.75" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" ht="15.75" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" ht="15.75" spans="1:4">
-      <c r="A100" s="2" t="s">
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" ht="15.75" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" ht="15.75" spans="1:4">
-      <c r="A102" s="2" t="s">
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" ht="15.75" spans="1:4">
-      <c r="A103" s="2" t="s">
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" ht="15.75" spans="1:4">
-      <c r="A104" s="2" t="s">
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" ht="15.75" spans="1:4">
-      <c r="A105" s="2" t="s">
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" ht="15.75" spans="1:4">
-      <c r="A106" s="2" t="s">
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" ht="15.75" spans="1:4">
-      <c r="A107" s="2" t="s">
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" ht="15.75" spans="1:4">
-      <c r="A108" s="2" t="s">
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" ht="15.75" spans="1:4">
-      <c r="A109" s="5" t="s">
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" ht="15.75" spans="1:4">
-      <c r="A110" s="2" t="s">
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" ht="15.75" spans="1:4">
-      <c r="A111" s="2" t="s">
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" ht="15.75" spans="1:4">
-      <c r="A112" s="2" t="s">
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" ht="15.75" spans="1:4">
-      <c r="A113" s="2" t="s">
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" ht="15.75" spans="1:4">
-      <c r="A114" s="2" t="s">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" ht="15.75" spans="1:4">
-      <c r="A115" s="2" t="s">
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" ht="15.75" spans="1:4">
-      <c r="A116" s="1" t="s">
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" ht="15.75" spans="1:4">
-      <c r="A117" s="1" t="s">
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" ht="15.75" spans="1:3">
-      <c r="A118" s="2" t="s">
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="119" ht="15.75" spans="1:3">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="121" ht="15.75" spans="1:2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" ht="15.75" spans="1:2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" ht="15.75" spans="1:2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" ht="15.75" spans="1:2">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" ht="15.75" spans="1:2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" ht="15.75" spans="1:2">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" ht="15.75" spans="1:2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" ht="15.75" spans="1:2">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" ht="15.75" spans="1:2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" ht="15.75" spans="1:2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" ht="15.75" spans="1:2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" ht="15.75" spans="1:2">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" ht="15.75" spans="1:2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
+    <row r="120" spans="1:3">
+      <c r="A120" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="379">
   <si>
     <t>MessageCode</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单价</t>
     </r>
     <r>
@@ -94,6 +100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单价</t>
     </r>
     <r>
@@ -126,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单价</t>
     </r>
     <r>
@@ -1156,7 +1174,61 @@
     <t>INPUT_QUANTITY_ERROR3</t>
   </si>
   <si>
-    <t>Số  lượng sản phẩm không đủ</t>
+    <t>Số lượng sản phẩm không đủ</t>
+  </si>
+  <si>
+    <t>Product quantity is not enough</t>
+  </si>
+  <si>
+    <t>QUANTITY_NOTENOUGH_ERROR</t>
+  </si>
+  <si>
+    <t>Số lượng nguyên liệu không đủ</t>
+  </si>
+  <si>
+    <t>The quantity of ingredients is not enough</t>
+  </si>
+  <si>
+    <t>SMS_SEND_ERROR</t>
+  </si>
+  <si>
+    <t>Mã xác minh đã được gửi, vui lòng kiểm tra tin nhắn</t>
+  </si>
+  <si>
+    <t>SMS_SEND_SUCCESS</t>
+  </si>
+  <si>
+    <t>Mã xác minh đã được gửi, mã xác minh có hiệu lực trong 5 phút</t>
+  </si>
+  <si>
+    <t>VERIFY_ERROR</t>
+  </si>
+  <si>
+    <t>Mã xác minh không chính xác</t>
+  </si>
+  <si>
+    <t>VERIFY_ERROR1</t>
+  </si>
+  <si>
+    <t>Mã xác minh phải có 6 ký tự</t>
+  </si>
+  <si>
+    <t>VERIFY_ERROR2</t>
+  </si>
+  <si>
+    <t>Mã xác minh có ký tự chữ</t>
+  </si>
+  <si>
+    <t>VERIFY_ERROR3</t>
+  </si>
+  <si>
+    <t>Mã xác minh đã hết hạn</t>
+  </si>
+  <si>
+    <t>VERIFY_SUCCESS</t>
+  </si>
+  <si>
+    <t>Xác minh thành công</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1548,19 +1620,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1693,7 +1752,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1705,34 +1764,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,7 +1876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1827,13 +1886,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1844,12 +1900,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2387,10 +2437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -2412,1397 +2462,1397 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>146</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" ht="31.5" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="7"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="7"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D91" s="7"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>278</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D94" s="7"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D105" s="7"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D109" s="7"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D111" s="7"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D113" s="7"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D114" s="7"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
@@ -3814,7 +3864,7 @@
       <c r="C116" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2" t="s">
@@ -3826,13 +3876,13 @@
       <c r="C117" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3840,10 +3890,10 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -3851,65 +3901,106 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C120" s="10"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
+      <c r="C120" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
+      <c r="A123" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1265">
   <si>
     <t>MessageCode</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>製品</t>
     </r>
     <r>
@@ -91,6 +97,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>제품</t>
     </r>
     <r>
@@ -192,6 +204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>住所</t>
     </r>
     <r>
@@ -224,6 +242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>주소는</t>
     </r>
     <r>
@@ -304,6 +328,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位价格</t>
     </r>
     <r>
@@ -327,6 +357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>単価</t>
     </r>
     <r>
@@ -368,6 +404,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>단가</t>
     </r>
     <r>
@@ -454,6 +496,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ราคาต่อหน่วย</t>
     </r>
     <r>
@@ -504,6 +552,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单价</t>
     </r>
     <r>
@@ -527,6 +581,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>単価</t>
     </r>
     <r>
@@ -568,6 +628,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>단가</t>
     </r>
     <r>
@@ -636,6 +702,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ราคาต่อหน่วย</t>
     </r>
     <r>
@@ -668,6 +740,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位价格</t>
     </r>
     <r>
@@ -691,6 +769,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>単価</t>
     </r>
     <r>
@@ -714,6 +798,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>단가</t>
     </r>
     <r>
@@ -764,6 +854,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ราคาต่อหน่วย</t>
     </r>
     <r>
@@ -817,6 +913,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>単位価格</t>
     </r>
     <r>
@@ -849,6 +951,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>단가</t>
     </r>
     <r>
@@ -917,6 +1025,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ราคา</t>
     </r>
     <r>
@@ -952,6 +1066,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>拡張単価</t>
     </r>
     <r>
@@ -966,6 +1086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>상향</t>
     </r>
     <r>
@@ -1049,6 +1175,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユニットは</t>
     </r>
     <r>
@@ -1072,6 +1204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>장치는</t>
     </r>
     <r>
@@ -1155,6 +1293,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>価格</t>
     </r>
     <r>
@@ -1187,6 +1331,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>가격은</t>
     </r>
     <r>
@@ -1270,6 +1420,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>価格</t>
     </r>
     <r>
@@ -1302,6 +1458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>가격은</t>
     </r>
     <r>
@@ -1367,6 +1529,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>価格</t>
     </r>
     <r>
@@ -1381,6 +1549,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>가격은</t>
     </r>
     <r>
@@ -1428,6 +1602,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>アップサイズの</t>
     </r>
     <r>
@@ -1469,6 +1649,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>상승</t>
     </r>
     <r>
@@ -1588,6 +1774,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>アップサイズの</t>
     </r>
     <r>
@@ -1629,6 +1821,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>상승</t>
     </r>
     <r>
@@ -1712,6 +1910,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>アップサイズの</t>
     </r>
     <r>
@@ -1753,6 +1957,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>상승</t>
     </r>
     <r>
@@ -1854,6 +2064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>性別</t>
     </r>
     <r>
@@ -1886,6 +2102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성별은</t>
     </r>
     <r>
@@ -1969,6 +2191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>性別</t>
     </r>
     <r>
@@ -2019,6 +2247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성별은</t>
     </r>
     <r>
@@ -2084,6 +2318,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>画像</t>
     </r>
     <r>
@@ -2116,6 +2356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>이미지는</t>
     </r>
     <r>
@@ -2196,6 +2442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>该商店不支持超过</t>
     </r>
     <r>
@@ -2219,6 +2471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>店</t>
     </r>
     <r>
@@ -2278,6 +2536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>가게는</t>
     </r>
     <r>
@@ -2409,6 +2673,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ร้านค้าไม่รองรับมากกว่า</t>
     </r>
     <r>
@@ -2462,6 +2732,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>プロモーション</t>
     </r>
     <r>
@@ -2503,6 +2779,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>홍보</t>
     </r>
     <r>
@@ -2583,6 +2865,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>促销价值仅接受</t>
     </r>
     <r>
@@ -2615,6 +2903,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>プロモーション</t>
     </r>
     <r>
@@ -2710,6 +3004,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>홍보</t>
     </r>
     <r>
@@ -2796,6 +3096,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>มูลค่าส่งเสริมการขายยอมรับเฉพาะตั้งแต่</t>
     </r>
     <r>
@@ -2837,6 +3143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Kinh</t>
     </r>
     <r>
@@ -2878,6 +3190,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Kinh</t>
     </r>
     <r>
@@ -2964,6 +3282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Kinh</t>
     </r>
     <r>
@@ -3041,6 +3365,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Kinh </t>
     </r>
     <r>
@@ -3103,6 +3433,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>式</t>
     </r>
     <r>
@@ -3135,6 +3471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>공식은</t>
     </r>
     <r>
@@ -3200,6 +3542,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>トランスポートユニットコードは</t>
     </r>
     <r>
@@ -3223,6 +3571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>전송</t>
     </r>
     <r>
@@ -3342,6 +3696,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>輸送</t>
     </r>
     <r>
@@ -3374,6 +3734,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>운송</t>
     </r>
     <r>
@@ -3457,6 +3823,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -3507,6 +3879,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장은</t>
     </r>
     <r>
@@ -3680,6 +4058,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -3712,6 +4096,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장이</t>
     </r>
     <r>
@@ -3831,6 +4221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -3863,6 +4259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장은</t>
     </r>
     <r>
@@ -3946,6 +4348,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>この</t>
     </r>
     <r>
@@ -3969,6 +4377,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>이</t>
     </r>
     <r>
@@ -4088,6 +4502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>注文</t>
     </r>
     <r>
@@ -4138,6 +4558,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>주문은</t>
     </r>
     <r>
@@ -4221,6 +4647,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>注文</t>
     </r>
     <r>
@@ -4271,6 +4703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>주문은</t>
     </r>
     <r>
@@ -4372,6 +4810,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -4404,6 +4848,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장</t>
     </r>
     <r>
@@ -4505,6 +4955,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -4537,6 +4993,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장이</t>
     </r>
     <r>
@@ -4602,6 +5064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -4634,6 +5102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장</t>
     </r>
     <r>
@@ -4735,6 +5209,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>入力請求書</t>
     </r>
     <r>
@@ -4767,6 +5247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>입력</t>
     </r>
     <r>
@@ -4850,6 +5336,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -4900,6 +5392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장이</t>
     </r>
     <r>
@@ -5046,6 +5544,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>エクスポート</t>
     </r>
     <r>
@@ -5087,6 +5591,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>내보내기</t>
     </r>
     <r>
@@ -5188,6 +5698,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>原材料</t>
     </r>
     <r>
@@ -5220,6 +5736,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>원료는</t>
     </r>
     <r>
@@ -5285,6 +5807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>請求書</t>
     </r>
     <r>
@@ -5353,6 +5881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>송장이나</t>
     </r>
     <r>
@@ -5517,6 +6051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>商品</t>
     </r>
     <r>
@@ -5567,6 +6107,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>상품의</t>
     </r>
     <r>
@@ -5668,6 +6214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>航空</t>
     </r>
     <r>
@@ -5700,6 +6252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>항공의</t>
     </r>
     <r>
@@ -5765,6 +6323,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>原材料</t>
     </r>
     <r>
@@ -5797,6 +6361,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>원료</t>
     </r>
     <r>
@@ -5901,6 +6471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>スタッフは</t>
     </r>
     <r>
@@ -5924,6 +6500,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>직원은</t>
     </r>
     <r>
@@ -5989,6 +6571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>不完全</t>
     </r>
     <r>
@@ -6021,6 +6609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>불완전한</t>
     </r>
     <r>
@@ -6086,6 +6680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>不完全</t>
     </r>
     <r>
@@ -6118,6 +6718,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>불완전한</t>
     </r>
     <r>
@@ -6201,6 +6807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>製品</t>
     </r>
     <r>
@@ -6233,6 +6845,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>제품</t>
     </r>
     <r>
@@ -6334,6 +6952,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>製品</t>
     </r>
     <r>
@@ -6366,6 +6990,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>제품은</t>
     </r>
     <r>
@@ -6431,6 +7061,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>役割</t>
     </r>
     <r>
@@ -6463,6 +7099,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>역할은</t>
     </r>
     <r>
@@ -6546,6 +7188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>役割</t>
     </r>
     <r>
@@ -6578,6 +7226,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>역할은</t>
     </r>
     <r>
@@ -6625,6 +7279,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>パスワードは</t>
     </r>
     <r>
@@ -6648,6 +7308,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>비밀번호는</t>
     </r>
     <r>
@@ -6728,6 +7394,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>密码必须至少导入</t>
     </r>
     <r>
@@ -6751,6 +7423,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>パスワードは</t>
     </r>
     <r>
@@ -6819,6 +7497,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>비밀번호는</t>
     </r>
     <r>
@@ -6887,6 +7571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>รหัสผ่านต้องนำเข้าอย่างน้อย</t>
     </r>
     <r>
@@ -6922,6 +7612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>繰</t>
     </r>
     <r>
@@ -6972,6 +7668,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>반복</t>
     </r>
     <r>
@@ -7070,6 +7772,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>重复的密码或密码必须至少具有</t>
     </r>
     <r>
@@ -7093,6 +7801,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>繰</t>
     </r>
     <r>
@@ -7188,6 +7902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>반복되는</t>
     </r>
     <r>
@@ -7319,6 +8039,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>รหัสผ่านหรือรหัสผ่านซ้ำจะต้องมีอักขระอย่างน้อย</t>
     </r>
     <r>
@@ -7354,6 +8080,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>パスワードはジョイントなしで</t>
     </r>
     <r>
@@ -7395,6 +8127,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>암호는</t>
     </r>
     <r>
@@ -7460,6 +8198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>開始日</t>
     </r>
     <r>
@@ -7492,6 +8236,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>시작일은</t>
     </r>
     <r>
@@ -7557,6 +8307,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>開始日</t>
     </r>
     <r>
@@ -7589,6 +8345,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>시작</t>
     </r>
     <r>
@@ -7672,6 +8434,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>開始日</t>
     </r>
     <r>
@@ -7740,6 +8508,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>시작</t>
     </r>
     <r>
@@ -7868,6 +8642,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>終了日</t>
     </r>
     <r>
@@ -7900,6 +8680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>종료</t>
     </r>
     <r>
@@ -8001,6 +8787,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>終了日</t>
     </r>
     <r>
@@ -8033,6 +8825,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>종료</t>
     </r>
     <r>
@@ -8116,6 +8914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>終了日</t>
     </r>
     <r>
@@ -8184,6 +8988,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>종료</t>
     </r>
     <r>
@@ -8312,6 +9122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>生年月日</t>
     </r>
     <r>
@@ -8344,6 +9160,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>생년월일은</t>
     </r>
     <r>
@@ -8427,6 +9249,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>生年月日</t>
     </r>
     <r>
@@ -8459,6 +9287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>생년월일은</t>
     </r>
     <r>
@@ -8524,6 +9358,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>生年月日</t>
     </r>
     <r>
@@ -8574,6 +9414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>생년월일은</t>
     </r>
     <r>
@@ -8663,6 +9509,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>员工没有</t>
     </r>
     <r>
@@ -8686,6 +9538,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>従業員</t>
     </r>
     <r>
@@ -8781,6 +9639,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>직원은</t>
     </r>
     <r>
@@ -8903,6 +9767,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>พนักงานอายุไม่</t>
     </r>
     <r>
@@ -8938,6 +9808,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>作業日</t>
     </r>
     <r>
@@ -8970,6 +9846,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>작업</t>
     </r>
     <r>
@@ -9071,6 +9953,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>労働日</t>
     </r>
     <r>
@@ -9103,6 +9991,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>작업</t>
     </r>
     <r>
@@ -9186,6 +10080,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>一日</t>
     </r>
     <r>
@@ -9254,6 +10154,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>하루를하는</t>
     </r>
     <r>
@@ -9364,6 +10270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>送料</t>
     </r>
     <r>
@@ -9432,6 +10344,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>배송비는</t>
     </r>
     <r>
@@ -9533,6 +10451,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>有効</t>
     </r>
     <r>
@@ -9556,6 +10480,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>유효한</t>
     </r>
     <r>
@@ -9600,6 +10530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>运费必须大于或等于</t>
     </r>
     <r>
@@ -9614,6 +10550,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>配送料</t>
     </r>
     <r>
@@ -9655,6 +10597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>배송비는</t>
     </r>
     <r>
@@ -9732,6 +10680,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ค่าจัดส่งจะต้องมากกว่าหรือเท่ากับ</t>
     </r>
     <r>
@@ -9758,6 +10712,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>電話番号</t>
     </r>
     <r>
@@ -9790,6 +10750,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>전화</t>
     </r>
     <r>
@@ -9891,6 +10857,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>無効</t>
     </r>
     <r>
@@ -9914,6 +10886,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>유효하지</t>
     </r>
     <r>
@@ -9994,6 +10972,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>电话号码必须有</t>
     </r>
     <r>
@@ -10017,6 +11001,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>電話番号</t>
     </r>
     <r>
@@ -10085,6 +11075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>전화</t>
     </r>
     <r>
@@ -10171,6 +11167,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>หมายเลขโทรศัพท์ต้องมี</t>
     </r>
     <r>
@@ -10206,6 +11208,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>電話番号</t>
     </r>
     <r>
@@ -10238,6 +11246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>전화</t>
     </r>
     <r>
@@ -10321,6 +11335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>電話番号</t>
     </r>
     <r>
@@ -10353,6 +11373,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>전화</t>
     </r>
     <r>
@@ -10418,6 +11444,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>ログイン</t>
     </r>
     <r>
@@ -10459,6 +11491,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>로그인</t>
     </r>
     <r>
@@ -10524,6 +11562,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>ログインできないシステムで</t>
     </r>
     <r>
@@ -10565,6 +11609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>로그인</t>
     </r>
     <r>
@@ -10693,6 +11743,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>数</t>
     </r>
     <r>
@@ -10725,6 +11781,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>숫자는</t>
     </r>
     <r>
@@ -10808,6 +11870,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>量</t>
     </r>
     <r>
@@ -10840,6 +11908,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>수량은</t>
     </r>
     <r>
@@ -10905,6 +11979,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>金額</t>
     </r>
     <r>
@@ -10919,6 +11999,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>금액은</t>
     </r>
     <r>
@@ -10966,6 +12052,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>評価</t>
     </r>
     <r>
@@ -11016,6 +12108,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>평가</t>
     </r>
     <r>
@@ -11117,6 +12215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>星</t>
     </r>
     <r>
@@ -11167,6 +12271,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>별의</t>
     </r>
     <r>
@@ -11247,6 +12357,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>评估星的数量必须为</t>
     </r>
     <r>
@@ -11279,6 +12395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>評価星</t>
     </r>
     <r>
@@ -11347,6 +12469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>평가</t>
     </r>
     <r>
@@ -11442,6 +12570,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>จำนวนดาวประเมินต้องเป็น</t>
     </r>
     <r>
@@ -11486,6 +12620,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>フォーミュラ</t>
     </r>
     <r>
@@ -11527,6 +12667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>공식</t>
     </r>
     <r>
@@ -11628,6 +12774,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>輸送</t>
     </r>
     <r>
@@ -11660,6 +12812,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>운송</t>
     </r>
     <r>
@@ -11725,6 +12883,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>商品</t>
     </r>
     <r>
@@ -11793,6 +12957,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>상품</t>
     </r>
     <r>
@@ -11894,6 +13064,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>製品</t>
     </r>
     <r>
@@ -11926,6 +13102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>제품이</t>
     </r>
     <r>
@@ -11973,6 +13155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>ユーザー</t>
     </r>
     <r>
@@ -12014,6 +13202,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>사용자</t>
     </r>
     <r>
@@ -12115,6 +13309,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>素材</t>
     </r>
     <r>
@@ -12165,6 +13365,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>자료의</t>
     </r>
     <r>
@@ -12266,6 +13472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>素材</t>
     </r>
     <r>
@@ -12298,6 +13510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>자료가</t>
     </r>
     <r>
@@ -12345,6 +13563,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>従業員</t>
     </r>
     <r>
@@ -12395,6 +13619,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>직원의</t>
     </r>
     <r>
@@ -12499,6 +13729,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>로그인하지</t>
     </r>
     <r>
@@ -12546,6 +13782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>この</t>
     </r>
     <r>
@@ -12605,6 +13847,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>이</t>
     </r>
     <r>
@@ -12706,6 +13954,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>無効</t>
     </r>
     <r>
@@ -12720,6 +13974,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>잘못된</t>
     </r>
     <r>
@@ -12788,6 +14048,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>支払</t>
     </r>
     <r>
@@ -12802,6 +14068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>지불</t>
     </r>
     <r>
@@ -12846,6 +14118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>月经期必须</t>
     </r>
     <r>
@@ -12878,6 +14156,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>月経期間</t>
     </r>
     <r>
@@ -12928,6 +14212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>월경</t>
     </r>
     <r>
@@ -13005,6 +14295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>ระยะเวลามีประจำเดือนต้อง</t>
     </r>
     <r>
@@ -13049,6 +14345,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -13099,6 +14401,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -13200,6 +14508,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -13250,6 +14564,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -13351,6 +14671,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -13401,6 +14727,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -13472,6 +14804,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>新</t>
     </r>
     <r>
@@ -13522,6 +14860,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>새로운</t>
     </r>
     <r>
@@ -13587,6 +14931,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>更新</t>
     </r>
     <r>
@@ -13610,6 +14960,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -13657,6 +15013,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -13689,6 +15051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공을</t>
     </r>
     <r>
@@ -13736,6 +15104,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>支払</t>
     </r>
     <r>
@@ -13759,6 +15133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>지불</t>
     </r>
     <r>
@@ -13806,6 +15186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -13856,6 +15242,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -13903,6 +15295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -13935,6 +15333,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>주문</t>
     </r>
     <r>
@@ -13982,6 +15386,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -14050,6 +15460,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -14097,6 +15513,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>順序</t>
     </r>
     <r>
@@ -14147,6 +15569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>주문을</t>
     </r>
     <r>
@@ -14212,6 +15640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>評価</t>
     </r>
     <r>
@@ -14235,6 +15669,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -14282,6 +15722,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>成功</t>
     </r>
     <r>
@@ -14350,6 +15796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>좋아하는</t>
     </r>
     <r>
@@ -14433,6 +15885,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>お</t>
     </r>
     <r>
@@ -14492,6 +15950,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>좋아하는</t>
     </r>
     <r>
@@ -14557,6 +16021,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>正常</t>
     </r>
     <r>
@@ -14571,6 +16041,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적으로</t>
     </r>
     <r>
@@ -14618,6 +16094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>正常</t>
     </r>
     <r>
@@ -14650,6 +16132,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적으로</t>
     </r>
     <r>
@@ -14697,6 +16185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>注文</t>
     </r>
     <r>
@@ -14729,6 +16223,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>주문이</t>
     </r>
     <r>
@@ -14776,6 +16276,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>エラー</t>
     </r>
     <r>
@@ -14790,6 +16296,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>오류</t>
     </r>
     <r>
@@ -14855,6 +16367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>通知</t>
     </r>
     <r>
@@ -14887,6 +16405,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>발견되지</t>
     </r>
     <r>
@@ -14934,6 +16458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>エラーがありました</t>
     </r>
     <r>
@@ -14993,6 +16523,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>오류가</t>
     </r>
     <r>
@@ -15076,6 +16612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>製品</t>
     </r>
     <r>
@@ -15126,6 +16668,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>제품</t>
     </r>
     <r>
@@ -15209,6 +16757,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>材料</t>
     </r>
     <r>
@@ -15259,6 +16813,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성분의</t>
     </r>
     <r>
@@ -15342,6 +16902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>確認</t>
     </r>
     <r>
@@ -15410,6 +16976,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>확인</t>
     </r>
     <r>
@@ -15517,6 +17089,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证代码已发送，验证代码在</t>
     </r>
     <r>
@@ -15540,6 +17118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>検証</t>
     </r>
     <r>
@@ -15635,6 +17219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>확인</t>
     </r>
     <r>
@@ -15784,6 +17374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>รหัสการตรวจสอบได้ถูกส่งรหัสการตรวจสอบจะมีผลใน</t>
     </r>
     <r>
@@ -15819,6 +17415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>検証</t>
     </r>
     <r>
@@ -15851,6 +17453,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>확인</t>
     </r>
     <r>
@@ -15931,6 +17539,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证代码必须有</t>
     </r>
     <r>
@@ -15954,6 +17568,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>検証</t>
     </r>
     <r>
@@ -16013,6 +17633,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>확인</t>
     </r>
     <r>
@@ -16081,6 +17707,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>รหัสการยืนยันต้องมี</t>
     </r>
     <r>
@@ -16116,6 +17748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>検証</t>
     </r>
     <r>
@@ -16148,6 +17786,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>확인</t>
     </r>
     <r>
@@ -16231,6 +17875,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>検証</t>
     </r>
     <r>
@@ -16281,6 +17931,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>확인</t>
     </r>
     <r>
@@ -16346,6 +18002,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>検証</t>
     </r>
     <r>
@@ -16369,6 +18031,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>성공적인</t>
     </r>
     <r>
@@ -16401,6 +18069,82 @@
   </si>
   <si>
     <t>การตรวจสอบที่ประสบความสำเร็จ</t>
+  </si>
+  <si>
+    <t>REGISTER_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công</t>
+  </si>
+  <si>
+    <t>Successful registration</t>
+  </si>
+  <si>
+    <t>Sign Up Success</t>
+  </si>
+  <si>
+    <t>报名成功</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>サインアップの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+  </si>
+  <si>
+    <t>Registrar el éxito</t>
+  </si>
+  <si>
+    <t>Inscrire le succès</t>
+  </si>
+  <si>
+    <t>Erfolg anmelden</t>
+  </si>
+  <si>
+    <t>ลงทะเบียนความสำเร็จ</t>
   </si>
 </sst>
 </file>
@@ -17101,7 +18845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17150,6 +18894,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17683,10 +19437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -21794,9 +23548,40 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
+    <row r="129" ht="45.75" spans="1:11">
+      <c r="A129" s="15" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J129" s="16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K129" s="19" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="15"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1271">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18145,6 +18145,24 @@
   </si>
   <si>
     <t>ลงทะเบียนความสำเร็จ</t>
+  </si>
+  <si>
+    <t>CHECKOUT_ERROR</t>
+  </si>
+  <si>
+    <t>Đặt hàng thất bại, trong giỏ hàng có sản phẩm đã ngừng kinh doanh</t>
+  </si>
+  <si>
+    <t>CHECKOUT_ERROR1</t>
+  </si>
+  <si>
+    <t>Bạn đang có đơn chưa hoàn thành không thể đặt thêm</t>
+  </si>
+  <si>
+    <t>CHECKOUT_ERROR2</t>
+  </si>
+  <si>
+    <t>Giỏ hàng của bạn đang trống</t>
   </si>
 </sst>
 </file>
@@ -19440,13 +19458,13 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68.1619047619048" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.1428571428571" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.14285714285714" style="1"/>
@@ -23584,16 +23602,28 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
+      <c r="A131" s="15" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>1268</v>
+      </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="15" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="15"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1283">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18163,6 +18163,42 @@
   </si>
   <si>
     <t>Giỏ hàng của bạn đang trống</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR4</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ không được bỏ trống</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR5</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ không chính xác</t>
+  </si>
+  <si>
+    <t>INPUT_PASSWORD_ERROR6</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới không được bỏ trống</t>
+  </si>
+  <si>
+    <t>CHANGE_PASSWORD_SUCCESS</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>FORGOT_PASSWORD_SUCCESS</t>
+  </si>
+  <si>
+    <t>Lấy lại mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>CHANGE_PASSWORD_ERROR</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới không được giống mật khẩu cũ</t>
   </si>
 </sst>
 </file>
@@ -19455,10 +19491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -23626,12 +23662,52 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
+      <c r="A133" s="15" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>1272</v>
+      </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
+      <c r="A134" s="15" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="15" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1282</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1287">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18199,6 +18199,18 @@
   </si>
   <si>
     <t>Mật khẩu mới không được giống mật khẩu cũ</t>
+  </si>
+  <si>
+    <t>CANCEL_SUCCESS</t>
+  </si>
+  <si>
+    <t>Huỷ đơn thành công</t>
+  </si>
+  <si>
+    <t>FROMDATE_TODATE_ERROR</t>
+  </si>
+  <si>
+    <t>Đến ngày không thể nhỏ hơn từ ngày</t>
   </si>
 </sst>
 </file>
@@ -19491,10 +19503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -23709,6 +23721,22 @@
         <v>1282</v>
       </c>
     </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1296">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18232,6 +18232,12 @@
   </si>
   <si>
     <t>Chi tiết hoá đơn không tồn tại</t>
+  </si>
+  <si>
+    <t>CART_PRODUCT_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Không tìm thấy sản phẩm trong giỏ hàng</t>
   </si>
 </sst>
 </file>
@@ -19524,10 +19530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -23782,6 +23788,14 @@
         <v>1293</v>
       </c>
     </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1298">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18238,6 +18238,12 @@
   </si>
   <si>
     <t>Không tìm thấy sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD_ERROR</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán không được bỏ trống</t>
   </si>
 </sst>
 </file>
@@ -19530,10 +19536,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -23796,6 +23802,14 @@
         <v>1295</v>
       </c>
     </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -19538,8 +19538,8 @@
   <sheetPr/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1300">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18244,6 +18244,12 @@
   </si>
   <si>
     <t>Phương thức thanh toán không được bỏ trống</t>
+  </si>
+  <si>
+    <t>CONFIRM_SUCCESS</t>
+  </si>
+  <si>
+    <t>Xác nhận đơn thành công</t>
   </si>
 </sst>
 </file>
@@ -18944,7 +18950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19001,6 +19007,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -19536,10 +19545,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -23678,7 +23687,7 @@
       <c r="J129" s="16" t="s">
         <v>1264</v>
       </c>
-      <c r="K129" s="19" t="s">
+      <c r="K129" s="20" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -23808,6 +23817,14 @@
       </c>
       <c r="B145" s="1" t="s">
         <v>1297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1299</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1306">
   <si>
     <t>MessageCode</t>
   </si>
@@ -18250,6 +18250,24 @@
   </si>
   <si>
     <t>Xác nhận đơn thành công</t>
+  </si>
+  <si>
+    <t>IS_EXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Đã tồn tại</t>
+  </si>
+  <si>
+    <t>IS_NOT_EXIST_ERROR</t>
+  </si>
+  <si>
+    <t>Không tồn tại</t>
+  </si>
+  <si>
+    <t>ADD_TOPPING_ERROR</t>
+  </si>
+  <si>
+    <t>Topping không hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -19545,10 +19563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -23827,6 +23845,30 @@
         <v>1299</v>
       </c>
     </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/assets/message.xlsx
+++ b/src/assets/message.xlsx
@@ -62,6 +62,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位价格</t>
     </r>
     <r>
@@ -94,6 +100,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单价</t>
     </r>
     <r>
@@ -126,6 +138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位价格</t>
     </r>
     <r>
@@ -302,6 +320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>该商店不支持超过</t>
     </r>
     <r>
@@ -346,6 +370,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>促销价值仅接受</t>
     </r>
     <r>
@@ -387,6 +417,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Kinh</t>
     </r>
     <r>
@@ -779,6 +815,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>密码必须至少导入</t>
     </r>
     <r>
@@ -823,6 +865,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>重复的密码或密码必须至少具有</t>
     </r>
     <r>
@@ -975,6 +1023,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>员工没有</t>
     </r>
     <r>
@@ -1067,6 +1121,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>运费必须大于或等于</t>
     </r>
     <r>
@@ -1114,6 +1174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>电话号码必须有</t>
     </r>
     <r>
@@ -1254,6 +1320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>评估星的数量必须为</t>
     </r>
     <r>
@@ -1442,6 +1514,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>月经期必须</t>
     </r>
     <r>
@@ -1765,6 +1843,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证代码已发送，验证代码在</t>
     </r>
     <r>
@@ -1809,6 +1893,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>验证代码必须有</t>
     </r>
     <r>
@@ -2849,7 +2939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2903,9 +2993,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -3469,8 +3556,8 @@
   <sheetPr/>
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -3941,7 +4028,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="18"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" ht="16.5" spans="1:11">
@@ -5904,7 +5991,7 @@
       <c r="B116" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="18" t="s">
         <v>455</v>
       </c>
       <c r="D116" s="9" t="s">
@@ -5925,7 +6012,7 @@
       <c r="B117" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="18" t="s">
         <v>459</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -5988,7 +6075,7 @@
       <c r="B120" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C120" s="19" t="s">
+      <c r="C120" s="18" t="s">
         <v>471</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -6009,7 +6096,7 @@
       <c r="B121" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="18" t="s">
         <v>475</v>
       </c>
       <c r="D121" s="9" t="s">
@@ -6030,7 +6117,7 @@
       <c r="B122" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="18" t="s">
         <v>479</v>
       </c>
       <c r="D122" s="9" t="s">
@@ -6051,7 +6138,7 @@
       <c r="B123" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="18" t="s">
         <v>483</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -6066,10 +6153,10 @@
       <c r="K123" s="15"/>
     </row>
     <row r="124" ht="16.5" spans="1:11">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="19" t="s">
         <v>486</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -6087,10 +6174,10 @@
       <c r="K124" s="15"/>
     </row>
     <row r="125" ht="16.5" spans="1:11">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="19" t="s">
         <v>490</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -6108,10 +6195,10 @@
       <c r="K125" s="15"/>
     </row>
     <row r="126" ht="16.5" spans="1:11">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="19" t="s">
         <v>494</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -6129,10 +6216,10 @@
       <c r="K126" s="15"/>
     </row>
     <row r="127" ht="16.5" spans="1:11">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="19" t="s">
         <v>498</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -6150,10 +6237,10 @@
       <c r="K127" s="15"/>
     </row>
     <row r="128" ht="16.5" spans="1:11">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="19" t="s">
         <v>502</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -6171,10 +6258,10 @@
       <c r="K128" s="15"/>
     </row>
     <row r="129" ht="16.5" spans="1:11">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="20" t="s">
         <v>506</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -6183,25 +6270,25 @@
       <c r="D129" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="29"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="28"/>
     </row>
     <row r="130" ht="16.5" spans="1:11">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="25" t="s">
         <v>512</v>
       </c>
       <c r="E130" s="15"/>
@@ -6213,16 +6300,16 @@
       <c r="K130" s="15"/>
     </row>
     <row r="131" ht="16.5" spans="1:11">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="B131" s="21" t="s">
+      <c r="B131" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="25" t="s">
         <v>516</v>
       </c>
       <c r="E131" s="15"/>
@@ -6234,16 +6321,16 @@
       <c r="K131" s="15"/>
     </row>
     <row r="132" ht="16.5" spans="1:11">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="25" t="s">
         <v>520</v>
       </c>
       <c r="E132" s="15"/>
@@ -6255,16 +6342,16 @@
       <c r="K132" s="15"/>
     </row>
     <row r="133" ht="16.5" spans="1:11">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="25" t="s">
         <v>524</v>
       </c>
       <c r="E133" s="15"/>
@@ -6276,13 +6363,13 @@
       <c r="K133" s="15"/>
     </row>
     <row r="134" ht="16.5" spans="1:11">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="26" t="s">
         <v>527</v>
       </c>
       <c r="D134" s="9" t="s">
@@ -6297,16 +6384,16 @@
       <c r="K134" s="15"/>
     </row>
     <row r="135" ht="16.5" spans="1:11">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="20" t="s">
         <v>529</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="25" t="s">
         <v>532</v>
       </c>
       <c r="E135" s="15"/>
@@ -6318,13 +6405,13 @@
       <c r="K135" s="15"/>
     </row>
     <row r="136" ht="16.5" spans="1:11">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="20" t="s">
         <v>533</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="26" t="s">
         <v>535</v>
       </c>
       <c r="D136" s="9" t="s">
@@ -6345,7 +6432,7 @@
       <c r="B137" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="26" t="s">
         <v>539</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -6366,10 +6453,10 @@
       <c r="B138" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="25" t="s">
         <v>544</v>
       </c>
       <c r="E138" s="15"/>
@@ -6387,7 +6474,7 @@
       <c r="B139" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="26" t="s">
         <v>547</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -6408,10 +6495,10 @@
       <c r="B140" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D140" s="25" t="s">
         <v>552</v>
       </c>
       <c r="E140" s="15"/>
@@ -6429,10 +6516,10 @@
       <c r="B141" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="25" t="s">
         <v>556</v>
       </c>
       <c r="E141" s="15"/>
@@ -6450,10 +6537,10 @@
       <c r="B142" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="25" t="s">
         <v>560</v>
       </c>
     </row>
@@ -6464,7 +6551,7 @@
       <c r="B143" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -6478,10 +6565,10 @@
       <c r="B144" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="25" t="s">
         <v>568</v>
       </c>
     </row>
@@ -6492,21 +6579,21 @@
       <c r="B145" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="25" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="146" ht="16.5" spans="1:4">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="27" t="s">
         <v>573</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="26" t="s">
         <v>575</v>
       </c>
       <c r="D146" s="9" t="s">
@@ -6520,7 +6607,7 @@
       <c r="B147" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="26" t="s">
         <v>579</v>
       </c>
       <c r="D147" s="9" t="s">
@@ -6534,7 +6621,7 @@
       <c r="B148" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="26" t="s">
         <v>583</v>
       </c>
       <c r="D148" s="9" t="s">
@@ -6548,7 +6635,7 @@
       <c r="B149" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="26" t="s">
         <v>587</v>
       </c>
       <c r="D149" s="9" t="s">
